--- a/C1300-24T-4X_VI.xlsx
+++ b/C1300-24T-4X_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec1806\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\KEY SPECS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC753B98-8E9A-46CF-BEEE-9CE0CF3BD924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0ED2B-88FE-42ED-896F-117CD7AAFD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Thông số kỹ thuật</t>
   </si>
   <si>
-    <t>Cấu hình tối thiểu</t>
-  </si>
-  <si>
     <t>Bộ nhớ DRAM</t>
   </si>
   <si>
@@ -156,13 +153,16 @@
   </si>
   <si>
     <t>Lên đến 8 thiết bị trong một ngăn xếp.</t>
+  </si>
+  <si>
+    <t>Cấu hình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -256,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,6 +288,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -290,9 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,76 +636,76 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7">
         <v>4093</v>
@@ -705,107 +714,107 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/C1300-24T-4X_VI.xlsx
+++ b/C1300-24T-4X_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\KEY SPECS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\specsss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0ED2B-88FE-42ED-896F-117CD7AAFD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A84FBC-04D9-4F9F-B78C-3FE601F5D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
@@ -184,9 +184,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -288,12 +289,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -302,6 +297,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,9 +622,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,10 +643,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -686,10 +686,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -740,10 +740,10 @@
     </row>
     <row r="13" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -757,41 +757,41 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>8</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
@@ -809,11 +809,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
     </row>
